--- a/P1.2 - Testcases.xlsx
+++ b/P1.2 - Testcases.xlsx
@@ -1,23 +1,230 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Dashboard" sheetId="4" r:id="rId1"/>
+    <sheet name="Testcase list" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
+  <pivotCaches>
+    <pivotCache cacheId="51" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="56">
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Search - Main page</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>GIVEN</t>
+  </si>
+  <si>
+    <t>WHEN</t>
+  </si>
+  <si>
+    <t>THEN</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Guest is on Main Page</t>
+  </si>
+  <si>
+    <t>He looks at the top menu</t>
+  </si>
+  <si>
+    <t>He sees weather search box on top menu next to the logo</t>
+  </si>
+  <si>
+    <t>BLOCKER</t>
+  </si>
+  <si>
+    <t>Data Driven</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>CRITICAL</t>
+  </si>
+  <si>
+    <t>He input a valid city name into search box
+AND He press Enter</t>
+  </si>
+  <si>
+    <t>NORMAL</t>
+  </si>
+  <si>
+    <t>He searchs for an invalid keyword</t>
+  </si>
+  <si>
+    <t>He sees validation error message with content "Your input keyword is not supported, please try another name"</t>
+  </si>
+  <si>
+    <t>Automated</t>
+  </si>
+  <si>
+    <t>Not yet</t>
+  </si>
+  <si>
+    <t>He searchs using autocomplete</t>
+  </si>
+  <si>
+    <t>TRIVIAL</t>
+  </si>
+  <si>
+    <t>Search result page is navigated</t>
+  </si>
+  <si>
+    <t>Search result page is navigated
+AND Keyword retains in result search box
+AND Weather icon, City name, Country flag, Weather description show on first line
+AND Temp, Temp Min, Temp Max, Wind, Cloud, Pressure show on second line
+AND Geo coords show on third line
+AND Browser does not get any error return</t>
+  </si>
+  <si>
+    <t>Search - Weather in your city page</t>
+  </si>
+  <si>
+    <t>Guest already performed searching
+AND Guest is on Weather in your city Page</t>
+  </si>
+  <si>
+    <t>He looks at the page body</t>
+  </si>
+  <si>
+    <t>He sees weather search box in the on the page body (middle of the page)</t>
+  </si>
+  <si>
+    <t>He sees search guideline below the result list with content same as designed</t>
+  </si>
+  <si>
+    <t>Search result page is redirected again with new result list
+AND Keyword retains in result search box
+AND Weather icon, City name, Country flag, Weather description show on first line
+AND Temp, Temp Min, Temp Max, Wind, Cloud, Pressure show on second line
+AND Geo coords show on third line
+AND Browser does not get any error return</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Summary by Area</t>
+  </si>
+  <si>
+    <t>Summary by Status</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>He input a valid city name into search box
+AND He clicks on submit button</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Search weather</t>
+  </si>
+  <si>
+    <t>Using API injection tool</t>
+  </si>
+  <si>
+    <t>Status 401
+AND Message "Invalid API key. Please see http://openweathermap.org/faq#error401 for more info."</t>
+  </si>
+  <si>
+    <t>User sends GET to /data/2.5/find
+AND q=Hanoi
+AND missing appid</t>
+  </si>
+  <si>
+    <t>User sends GET to /data/2.5/find
+AND q=Hanoi
+AND appid=439d4b804bc8187953eb36d2a8c26a02</t>
+  </si>
+  <si>
+    <t>User sends GET to /data/2.5/find
+AND q=Hanoi
+AND appid=439d4b804bc8187953eb36d2a8c26a02
+AND missing type</t>
+  </si>
+  <si>
+    <t>User sends GET to /data/2.5/find
+AND q=Hanoi
+AND appid=439d4b804bc8187953eb36d2a8c26a02
+AND missing sort</t>
+  </si>
+  <si>
+    <t>User sends GET to /data/2.5/find
+AND missing q</t>
+  </si>
+  <si>
+    <t>Status 500
+AND Message "Internal server error"</t>
+  </si>
+  <si>
+    <t>Status 200
+AND Body as Json matches expected dataset</t>
+  </si>
+  <si>
+    <t>User sends GET to /data/2.5/find
+AND q=Hanoi
+AND appid=439d4b804bc8187953eb36d2a8c26a02
+AND sort=id</t>
+  </si>
+  <si>
+    <t>Status 200
+AND Body as Json matches expected dataset
+AND Result is sorted by city ID</t>
+  </si>
+  <si>
+    <t>Blocking</t>
+  </si>
+  <si>
+    <t>Skipped</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +232,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,19 +290,1018 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[P1.2 - Testcases.xlsx]Dashboard!PivotTable5</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Dashboard!$A$2:$A$17</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BLOCKER</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CRITICAL</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>NORMAL</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>TRIVIAL</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>CRITICAL</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>NORMAL</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>TRIVIAL</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CRITICAL</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NORMAL</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>GUI</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>GUI</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>API</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Search - Main page</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Search - Weather in your city page</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Search weather</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="149946752"/>
+        <c:axId val="150603264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="149946752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="150603264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="150603264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="149946752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$A$22:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Not yet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>In progress</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Blocking</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Skipped</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Done</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$22:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="44208.592200925923" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="22">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="ID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="22"/>
+    </cacheField>
+    <cacheField name="Area" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Search - Main page"/>
+        <s v="Search - Weather in your city page"/>
+        <s v="Search weather"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Type" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="GUI"/>
+        <s v="API"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="GIVEN" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="WHEN" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="THEN" numFmtId="0">
+      <sharedItems containsBlank="1" longText="1"/>
+    </cacheField>
+    <cacheField name="Severity" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="BLOCKER"/>
+        <s v="CRITICAL"/>
+        <s v="NORMAL"/>
+        <s v="TRIVIAL"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Data Driven" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="No"/>
+        <s v="Yes"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Automated" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="Done"/>
+        <s v="Not yet"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Note" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="22">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Guest is on Main Page"/>
+    <s v="He looks at the top menu"/>
+    <s v="He sees weather search box on top menu next to the logo"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Guest is on Main Page"/>
+    <s v="He input a valid city name into search box_x000a_AND He clicks on submit button"/>
+    <s v="Search result page is navigated_x000a_AND Keyword retains in result search box_x000a_AND Weather icon, City name, Country flag, Weather description show on first line_x000a_AND Temp, Temp Min, Temp Max, Wind, Cloud, Pressure show on second line_x000a_AND Geo coords show on third line_x000a_AND Browser does not get any error return"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Guest is on Main Page"/>
+    <s v="He input a valid city name into search box_x000a_AND He press Enter"/>
+    <s v="Search result page is navigated_x000a_AND Keyword retains in result search box_x000a_AND Weather icon, City name, Country flag, Weather description show on first line_x000a_AND Temp, Temp Min, Temp Max, Wind, Cloud, Pressure show on second line_x000a_AND Geo coords show on third line_x000a_AND Browser does not get any error return"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Guest is on Main Page"/>
+    <s v="He searchs for an invalid keyword"/>
+    <s v="He sees validation error message with content &quot;Your input keyword is not supported, please try another name&quot;"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Guest is on Main Page"/>
+    <s v="He searchs using autocomplete"/>
+    <s v="Search result page is navigated"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Guest already performed searching_x000a_AND Guest is on Weather in your city Page"/>
+    <s v="He looks at the page body"/>
+    <s v="He sees weather search box in the on the page body (middle of the page)"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Guest already performed searching_x000a_AND Guest is on Weather in your city Page"/>
+    <s v="He looks at the page body"/>
+    <s v="He sees search guideline below the result list with content same as designed"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Guest already performed searching_x000a_AND Guest is on Weather in your city Page"/>
+    <s v="He input a valid city name into search box_x000a_AND He clicks on submit button"/>
+    <s v="Search result page is redirected again with new result list_x000a_AND Keyword retains in result search box_x000a_AND Weather icon, City name, Country flag, Weather description show on first line_x000a_AND Temp, Temp Min, Temp Max, Wind, Cloud, Pressure show on second line_x000a_AND Geo coords show on third line_x000a_AND Browser does not get any error return"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Guest already performed searching_x000a_AND Guest is on Weather in your city Page"/>
+    <s v="He input a valid city name into search box_x000a_AND He press Enter"/>
+    <s v="Search result page is redirected again with new result list_x000a_AND Keyword retains in result search box_x000a_AND Weather icon, City name, Country flag, Weather description show on first line_x000a_AND Temp, Temp Min, Temp Max, Wind, Cloud, Pressure show on second line_x000a_AND Geo coords show on third line_x000a_AND Browser does not get any error return"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Guest already performed searching_x000a_AND Guest is on Weather in your city Page"/>
+    <s v="He searchs for an invalid keyword"/>
+    <s v="He sees validation error message with content &quot;Your input keyword is not supported, please try another name&quot;"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Guest already performed searching_x000a_AND Guest is on Weather in your city Page"/>
+    <s v="He searchs using autocomplete"/>
+    <s v="Search result page is navigated"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="Using API injection tool"/>
+    <s v="User sends GET to /data/2.5/find_x000a_AND q=Hanoi_x000a_AND appid=439d4b804bc8187953eb36d2a8c26a02"/>
+    <s v="Status 200_x000a_AND Body as Json matches expected dataset"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="Using API injection tool"/>
+    <s v="User sends GET to /data/2.5/find_x000a_AND missing q"/>
+    <s v="Status 500_x000a_AND Message &quot;Internal server error&quot;"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="Using API injection tool"/>
+    <s v="User sends GET to /data/2.5/find_x000a_AND q=Hanoi_x000a_AND missing appid"/>
+    <s v="Status 401_x000a_AND Message &quot;Invalid API key. Please see http://openweathermap.org/faq#error401 for more info.&quot;"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="Using API injection tool"/>
+    <s v="User sends GET to /data/2.5/find_x000a_AND q=Hanoi_x000a_AND appid=439d4b804bc8187953eb36d2a8c26a02_x000a_AND missing type"/>
+    <s v="Status 200_x000a_AND Body as Json matches expected dataset"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="Using API injection tool"/>
+    <s v="User sends GET to /data/2.5/find_x000a_AND q=Hanoi_x000a_AND appid=439d4b804bc8187953eb36d2a8c26a02_x000a_AND missing sort"/>
+    <s v="Status 200_x000a_AND Body as Json matches expected dataset"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="Using API injection tool"/>
+    <s v="User sends GET to /data/2.5/find_x000a_AND q=Hanoi_x000a_AND appid=439d4b804bc8187953eb36d2a8c26a02_x000a_AND sort=id"/>
+    <s v="Status 200_x000a_AND Body as Json matches expected dataset_x000a_AND Result is sorted by city ID"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="3"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="3"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="3"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="3"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="3"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Summary by Area">
+  <location ref="A1:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="1"/>
+    <field x="2"/>
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count" fld="0" subtotal="count" baseField="1" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J23" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:J23"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="ID" dataDxfId="11"/>
+    <tableColumn id="2" name="Area" dataDxfId="10"/>
+    <tableColumn id="3" name="Type" dataDxfId="9"/>
+    <tableColumn id="7" name="GIVEN" dataDxfId="8"/>
+    <tableColumn id="6" name="WHEN" dataDxfId="7"/>
+    <tableColumn id="4" name="THEN" dataDxfId="6"/>
+    <tableColumn id="9" name="Severity" dataDxfId="5"/>
+    <tableColumn id="10" name="Data Driven" dataDxfId="1"/>
+    <tableColumn id="12" name="Automated" dataDxfId="0"/>
+    <tableColumn id="5" name="Note" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,37 +1590,806 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="13">
+        <f>COUNTIF('Testcase list'!$I:$I,Dashboard!A22)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="8">
+        <f>COUNTIF('Testcase list'!$I:$I,Dashboard!A23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="15">
+        <f>COUNTIF('Testcase list'!$I:$I,Dashboard!A24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="17">
+        <f>COUNTIF('Testcase list'!$I:$I,Dashboard!A25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="11">
+        <f>COUNTIF('Testcase list'!$I:$I,Dashboard!A26)</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="43.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G23">
+      <formula1>"BLOCKER, CRITICAL, NORMAL, TRIVIAL"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Dashboard!$A$22:$A$26</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I18</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/P1.2 - Testcases.xlsx
+++ b/P1.2 - Testcases.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,13 +12,13 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="51" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="57">
   <si>
     <t>Area</t>
   </si>
@@ -218,6 +218,10 @@
   </si>
   <si>
     <t>Skipped</t>
+  </si>
+  <si>
+    <t>He inputs a valid city name into search box
+AND He presses Enter</t>
   </si>
 </sst>
 </file>
@@ -586,11 +590,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="149946752"/>
-        <c:axId val="150603264"/>
+        <c:axId val="38546432"/>
+        <c:axId val="127784448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="149946752"/>
+        <c:axId val="38546432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -599,7 +603,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150603264"/>
+        <c:crossAx val="127784448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -607,7 +611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150603264"/>
+        <c:axId val="127784448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -617,7 +621,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149946752"/>
+        <c:crossAx val="38546432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -702,7 +706,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -714,7 +718,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1152,7 +1156,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Summary by Area">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Summary by Area">
   <location ref="A1:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -1286,19 +1290,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J23" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J23" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J23"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="ID" dataDxfId="11"/>
-    <tableColumn id="2" name="Area" dataDxfId="10"/>
-    <tableColumn id="3" name="Type" dataDxfId="9"/>
-    <tableColumn id="7" name="GIVEN" dataDxfId="8"/>
-    <tableColumn id="6" name="WHEN" dataDxfId="7"/>
-    <tableColumn id="4" name="THEN" dataDxfId="6"/>
-    <tableColumn id="9" name="Severity" dataDxfId="5"/>
-    <tableColumn id="10" name="Data Driven" dataDxfId="1"/>
-    <tableColumn id="12" name="Automated" dataDxfId="0"/>
-    <tableColumn id="5" name="Note" dataDxfId="4"/>
+    <tableColumn id="1" name="ID" dataDxfId="9"/>
+    <tableColumn id="2" name="Area" dataDxfId="8"/>
+    <tableColumn id="3" name="Type" dataDxfId="7"/>
+    <tableColumn id="7" name="GIVEN" dataDxfId="6"/>
+    <tableColumn id="6" name="WHEN" dataDxfId="5"/>
+    <tableColumn id="4" name="THEN" dataDxfId="4"/>
+    <tableColumn id="9" name="Severity" dataDxfId="3"/>
+    <tableColumn id="10" name="Data Driven" dataDxfId="2"/>
+    <tableColumn id="12" name="Automated" dataDxfId="1"/>
+    <tableColumn id="5" name="Note" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1594,7 +1598,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,7 +1755,7 @@
       </c>
       <c r="B22" s="13">
         <f>COUNTIF('Testcase list'!$I:$I,Dashboard!A22)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1787,7 +1791,7 @@
       </c>
       <c r="B26" s="11">
         <f>COUNTIF('Testcase list'!$I:$I,Dashboard!A26)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1800,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,7 +1927,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>27</v>
@@ -2196,7 +2200,7 @@
         <v>16</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2225,7 +2229,7 @@
         <v>16</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2254,7 +2258,7 @@
         <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -2283,7 +2287,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="90" x14ac:dyDescent="0.25">
